--- a/data/trans_orig/P36BPD06_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD06_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A3F6867-3CE7-4290-921E-E8C9A187AA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11D7E533-95C9-4633-9D8C-268DD2DC6252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F107827B-04FD-4BAE-9589-FA89170CB494}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E0A0291F-E47D-4F00-BEB9-63B3F04497C3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>27,68%</t>
   </si>
   <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
   </si>
   <si>
     <t>28,99%</t>
   </si>
   <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
   </si>
   <si>
     <t>28,48%</t>
   </si>
   <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
   </si>
   <si>
     <t>Menos de una al día</t>
@@ -104,28 +104,28 @@
     <t>72,32%</t>
   </si>
   <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
   </si>
   <si>
     <t>71,01%</t>
   </si>
   <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
   </si>
   <si>
     <t>71,52%</t>
   </si>
   <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>25,05%</t>
   </si>
   <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
   </si>
   <si>
     <t>29,25%</t>
   </si>
   <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
   </si>
   <si>
     <t>27,19%</t>
   </si>
   <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
   </si>
   <si>
     <t>74,95%</t>
   </si>
   <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
   </si>
   <si>
     <t>70,75%</t>
   </si>
   <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
   </si>
   <si>
     <t>72,81%</t>
   </si>
   <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +194,109 @@
     <t>18,21%</t>
   </si>
   <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
   </si>
   <si>
     <t>18,06%</t>
   </si>
   <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
   </si>
   <si>
     <t>18,13%</t>
   </si>
   <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
   </si>
   <si>
     <t>81,79%</t>
   </si>
   <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
   </si>
   <si>
     <t>81,94%</t>
   </si>
   <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
   </si>
   <si>
     <t>81,87%</t>
   </si>
   <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
   </si>
   <si>
     <t>24,1%</t>
   </si>
   <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
   </si>
   <si>
     <t>27,09%</t>
   </si>
   <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
   </si>
   <si>
     <t>25,69%</t>
   </si>
   <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
   </si>
   <si>
     <t>75,9%</t>
   </si>
   <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
   </si>
   <si>
     <t>72,91%</t>
   </si>
   <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
   </si>
   <si>
     <t>74,31%</t>
   </si>
   <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{425B473F-CA7D-4BF5-BAFB-9BB53799B799}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575E6745-BBE1-4071-96F2-FA7FEEB16950}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -898,7 +898,7 @@
         <v>1055</v>
       </c>
       <c r="I5" s="7">
-        <v>592007</v>
+        <v>592006</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -949,7 +949,7 @@
         <v>1423</v>
       </c>
       <c r="I6" s="7">
-        <v>833736</v>
+        <v>833735</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1068,7 +1068,7 @@
         <v>3737</v>
       </c>
       <c r="N8" s="7">
-        <v>3205398</v>
+        <v>3205397</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1119,7 +1119,7 @@
         <v>4901</v>
       </c>
       <c r="N9" s="7">
-        <v>4402415</v>
+        <v>4402414</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1297,7 +1297,7 @@
         <v>785</v>
       </c>
       <c r="D13" s="7">
-        <v>810234</v>
+        <v>810233</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1399,7 +1399,7 @@
         <v>3349</v>
       </c>
       <c r="D15" s="7">
-        <v>3361460</v>
+        <v>3361459</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P36BPD06_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD06_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11D7E533-95C9-4633-9D8C-268DD2DC6252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73B6A5AC-CF2A-4FB7-A6B0-2530A56B9467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E0A0291F-E47D-4F00-BEB9-63B3F04497C3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4440EE9D-8504-4C17-BDD1-11A81C6FF319}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>Población según el número de raciones de mantequilla, margarina o nata que consume al día en 2023 (Tasa respuesta: 99,66%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>Una o más al día</t>
   </si>
   <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
   </si>
   <si>
     <t>Menos de una al día</t>
   </si>
   <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,169 +134,163 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575E6745-BBE1-4071-96F2-FA7FEEB16950}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504CAD23-6E05-4D63-A58F-DB5EADD00EB0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -832,7 +826,7 @@
         <v>174</v>
       </c>
       <c r="D4" s="7">
-        <v>148236</v>
+        <v>134317</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -847,7 +841,7 @@
         <v>368</v>
       </c>
       <c r="I4" s="7">
-        <v>241729</v>
+        <v>211413</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -862,7 +856,7 @@
         <v>542</v>
       </c>
       <c r="N4" s="7">
-        <v>389965</v>
+        <v>345730</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -883,7 +877,7 @@
         <v>510</v>
       </c>
       <c r="D5" s="7">
-        <v>387230</v>
+        <v>374854</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -898,7 +892,7 @@
         <v>1055</v>
       </c>
       <c r="I5" s="7">
-        <v>592006</v>
+        <v>542056</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -913,7 +907,7 @@
         <v>1565</v>
       </c>
       <c r="N5" s="7">
-        <v>979237</v>
+        <v>916911</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -934,7 +928,7 @@
         <v>684</v>
       </c>
       <c r="D6" s="7">
-        <v>535466</v>
+        <v>509171</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -949,7 +943,7 @@
         <v>1423</v>
       </c>
       <c r="I6" s="7">
-        <v>833735</v>
+        <v>753469</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -964,7 +958,7 @@
         <v>2107</v>
       </c>
       <c r="N6" s="7">
-        <v>1369202</v>
+        <v>1262641</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -987,7 +981,7 @@
         <v>491</v>
       </c>
       <c r="D7" s="7">
-        <v>539940</v>
+        <v>488203</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1002,7 +996,7 @@
         <v>673</v>
       </c>
       <c r="I7" s="7">
-        <v>657077</v>
+        <v>737851</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1017,7 +1011,7 @@
         <v>1164</v>
       </c>
       <c r="N7" s="7">
-        <v>1197017</v>
+        <v>1226054</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1038,7 +1032,7 @@
         <v>1495</v>
       </c>
       <c r="D8" s="7">
-        <v>1615793</v>
+        <v>1796239</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1053,7 +1047,7 @@
         <v>2242</v>
       </c>
       <c r="I8" s="7">
-        <v>1589605</v>
+        <v>1497300</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1068,7 +1062,7 @@
         <v>3737</v>
       </c>
       <c r="N8" s="7">
-        <v>3205397</v>
+        <v>3293539</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1089,7 +1083,7 @@
         <v>1986</v>
       </c>
       <c r="D9" s="7">
-        <v>2155733</v>
+        <v>2284442</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1104,7 +1098,7 @@
         <v>2915</v>
       </c>
       <c r="I9" s="7">
-        <v>2246682</v>
+        <v>2235151</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1119,7 +1113,7 @@
         <v>4901</v>
       </c>
       <c r="N9" s="7">
-        <v>4402414</v>
+        <v>4519593</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1142,7 +1136,7 @@
         <v>120</v>
       </c>
       <c r="D10" s="7">
-        <v>122058</v>
+        <v>115773</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1157,7 +1151,7 @@
         <v>171</v>
       </c>
       <c r="I10" s="7">
-        <v>128924</v>
+        <v>115565</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1172,7 +1166,7 @@
         <v>291</v>
       </c>
       <c r="N10" s="7">
-        <v>250982</v>
+        <v>231338</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1193,7 +1187,7 @@
         <v>559</v>
       </c>
       <c r="D11" s="7">
-        <v>548202</v>
+        <v>528239</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1208,7 +1202,7 @@
         <v>833</v>
       </c>
       <c r="I11" s="7">
-        <v>584962</v>
+        <v>544898</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1223,7 +1217,7 @@
         <v>1392</v>
       </c>
       <c r="N11" s="7">
-        <v>1133165</v>
+        <v>1073137</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1244,7 +1238,7 @@
         <v>679</v>
       </c>
       <c r="D12" s="7">
-        <v>670260</v>
+        <v>644012</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1259,7 +1253,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1274,7 +1268,7 @@
         <v>1683</v>
       </c>
       <c r="N12" s="7">
-        <v>1384147</v>
+        <v>1304475</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1297,7 +1291,7 @@
         <v>785</v>
       </c>
       <c r="D13" s="7">
-        <v>810233</v>
+        <v>738293</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1312,7 +1306,7 @@
         <v>1212</v>
       </c>
       <c r="I13" s="7">
-        <v>1027731</v>
+        <v>1064829</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1327,7 +1321,7 @@
         <v>1997</v>
       </c>
       <c r="N13" s="7">
-        <v>1837964</v>
+        <v>1803122</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -1336,7 +1330,7 @@
         <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1348,46 +1342,46 @@
         <v>2564</v>
       </c>
       <c r="D14" s="7">
-        <v>2551226</v>
+        <v>2699333</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>4130</v>
       </c>
       <c r="I14" s="7">
-        <v>2766573</v>
+        <v>2584254</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6694</v>
       </c>
       <c r="N14" s="7">
-        <v>5317799</v>
+        <v>5283587</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1399,7 +1393,7 @@
         <v>3349</v>
       </c>
       <c r="D15" s="7">
-        <v>3361459</v>
+        <v>3437626</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1414,7 +1408,7 @@
         <v>5342</v>
       </c>
       <c r="I15" s="7">
-        <v>3794304</v>
+        <v>3649083</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1429,7 +1423,7 @@
         <v>8691</v>
       </c>
       <c r="N15" s="7">
-        <v>7155763</v>
+        <v>7086709</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1443,7 +1437,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
